--- a/docs/data/excel/single_skill.xlsx
+++ b/docs/data/excel/single_skill.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>filename</t>
   </si>
@@ -44,16 +44,54 @@
     <t>last_updated</t>
   </si>
   <si>
-    <t>测试.jpg</t>
-  </si>
-  <si>
-    <t>测试</t>
-  </si>
-  <si>
-    <t>yeyeyeyeyeye</t>
-  </si>
-  <si>
-    <t>无</t>
+    <t>英语Mix.png</t>
+  </si>
+  <si>
+    <t>Mix</t>
+  </si>
+  <si>
+    <t>Taiga Faiya Saiba Faiba Daiba Baiba JyaJya（Faibo Waipa）</t>
+  </si>
+  <si>
+    <t>2八拍，语言Mix</t>
+  </si>
+  <si>
+    <t>日语Mix.png</t>
+  </si>
+  <si>
+    <t>Tora Hi Jinzou Seni Ama Shindou Kasen（Tobi Jyokyo）</t>
+  </si>
+  <si>
+    <t>可变三连.png</t>
+  </si>
+  <si>
+    <t>JinzouFaiya FaiboWaipa
+Taiga Taiga TatatataTaiga
+ChapeApeKaraKina ChapeApeKaraKina
+Myo-hontousuke (P) Waipa
+Faiya Faiya ToraToraKaraKina
+ChapeApeFama AmaAmaJyasupa
+ToraTaiga ToraTaiga
+JinzouSen'i Yetaiga</t>
+  </si>
+  <si>
+    <t>8八拍，可变Mix</t>
+  </si>
+  <si>
+    <t>巧克力口上.png</t>
+  </si>
+  <si>
+    <t>口上</t>
+  </si>
+  <si>
+    <t>Tsukino Hikarini Terasarete
+Amai Egaoni Koioshita
+Hoshiga Mahoude Kagayaite
+Hitomini Utsuru（Pink）iro
+Sekaino Aini Tsutsumarete
+Umaretekita Anatano Sobade
+Zutto Isshoni Waratte Ittai
+Aio Motto（Team OOO）</t>
   </si>
 </sst>
 </file>
@@ -674,8 +712,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1059,13 +1100,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="3" max="3" width="58.7767857142857" customWidth="1"/>
+    <col min="4" max="4" width="18.1517857142857" customWidth="1"/>
+    <col min="5" max="5" width="28.4196428571429" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1084,18 +1131,60 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" ht="18" spans="1:4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" ht="141" spans="1:4">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" ht="141" spans="1:4">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
